--- a/data/trans_orig/Q64A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,99; 111,5</t>
+          <t>78,2; 110,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>101,06; 144,68</t>
+          <t>101,88; 146,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,73; 140,59</t>
+          <t>97,48; 139,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>130,7; 168,18</t>
+          <t>131,06; 170,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,87; 69,05</t>
+          <t>40,7; 71,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,34; 118,81</t>
+          <t>77,52; 119,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,23; 131,1</t>
+          <t>94,07; 129,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>107,7; 131,5</t>
+          <t>106,98; 131,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,87; 89,04</t>
+          <t>67,57; 90,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,52; 127,77</t>
+          <t>97,7; 128,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>101,6; 130,8</t>
+          <t>100,93; 130,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>123,73; 149,94</t>
+          <t>126,05; 148,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,82; 126,87</t>
+          <t>99,46; 126,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>116,35; 156,68</t>
+          <t>115,48; 157,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,0; 120,74</t>
+          <t>90,7; 122,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>116,43; 159,47</t>
+          <t>116,37; 158,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,48; 87,57</t>
+          <t>53,31; 85,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,52; 107,87</t>
+          <t>66,97; 106,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,52; 102,12</t>
+          <t>68,57; 102,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>98,23; 130,02</t>
+          <t>99,19; 130,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,03; 109,52</t>
+          <t>87,32; 108,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>100,06; 130,2</t>
+          <t>100,38; 130,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85,25; 108,59</t>
+          <t>85,63; 109,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>111,15; 138,93</t>
+          <t>113,8; 142,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>105,24; 135,47</t>
+          <t>106,54; 136,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>104,34; 141,78</t>
+          <t>103,92; 140,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>103,82; 139,3</t>
+          <t>105,43; 139,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>129,34; 170,12</t>
+          <t>128,83; 170,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,78; 109,32</t>
+          <t>70,57; 110,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,22; 91,33</t>
+          <t>57,87; 90,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,71; 117,87</t>
+          <t>69,29; 118,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90,8; 127,34</t>
+          <t>90,18; 124,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,81; 123,14</t>
+          <t>97,35; 121,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>90,49; 119,19</t>
+          <t>89,3; 118,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,42; 122,42</t>
+          <t>94,58; 124,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>116,65; 144,93</t>
+          <t>116,9; 145,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>105,79; 136,54</t>
+          <t>106,3; 136,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>109,1; 148,58</t>
+          <t>108,96; 148,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>121,48; 176,82</t>
+          <t>120,71; 175,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>130,46; 186,73</t>
+          <t>129,82; 191,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,14; 86,94</t>
+          <t>60,07; 86,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,18; 126,02</t>
+          <t>82,57; 123,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,72; 142,4</t>
+          <t>93,1; 143,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,75; 140,13</t>
+          <t>58,08; 140,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,79; 113,99</t>
+          <t>91,83; 113,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>103,08; 134,3</t>
+          <t>102,8; 133,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>114,18; 153,09</t>
+          <t>114,02; 152,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>77,3; 151,84</t>
+          <t>83,7; 152,47</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,87; 111,38</t>
+          <t>71,69; 113,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,71; 149,78</t>
+          <t>94,88; 147,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,16; 132,3</t>
+          <t>87,17; 131,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>126,91; 162,85</t>
+          <t>126,61; 162,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 76,47</t>
+          <t>36,29; 80,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,35; 139,76</t>
+          <t>80,92; 138,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,65; 116,7</t>
+          <t>64,23; 116,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>104,5; 128,96</t>
+          <t>103,41; 129,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62,88; 96,38</t>
+          <t>62,4; 94,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>95,41; 136,09</t>
+          <t>93,05; 132,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>84,07; 117,79</t>
+          <t>85,44; 120,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>119,56; 141,58</t>
+          <t>120,63; 140,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,8; 127,83</t>
+          <t>96,43; 127,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>131,65; 187,19</t>
+          <t>131,36; 185,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>136,44; 181,21</t>
+          <t>134,67; 180,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>142,07; 185,19</t>
+          <t>142,03; 185,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,22; 80,08</t>
+          <t>43,1; 78,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,91; 105,64</t>
+          <t>60,35; 106,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,84; 145,03</t>
+          <t>96,76; 145,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>122,34; 169,5</t>
+          <t>123,55; 175,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,29; 107,43</t>
+          <t>82,17; 106,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>113,45; 155,02</t>
+          <t>113,78; 155,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>125,32; 158,51</t>
+          <t>125,19; 158,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>139,04; 172,56</t>
+          <t>141,81; 171,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,69; 111,99</t>
+          <t>89,8; 110,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>115,73; 145,44</t>
+          <t>116,37; 144,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,72; 111,31</t>
+          <t>86,85; 112,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>116,47; 146,64</t>
+          <t>117,56; 147,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,71; 83,3</t>
+          <t>57,64; 83,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,5; 103,28</t>
+          <t>74,55; 104,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,23; 85,68</t>
+          <t>65,03; 86,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>101,96; 122,81</t>
+          <t>101,52; 123,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,01; 96,99</t>
+          <t>80,72; 98,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>102,02; 123,86</t>
+          <t>103,49; 124,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,55; 97,08</t>
+          <t>80,54; 97,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>113,86; 132,48</t>
+          <t>114,09; 133,57</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>88,86; 109,9</t>
+          <t>88,69; 109,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>102,42; 124,52</t>
+          <t>102,21; 124,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>107,4; 131,14</t>
+          <t>107,93; 132,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,54; 144,31</t>
+          <t>29,29; 143,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>80,19; 104,9</t>
+          <t>81,55; 107,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,6; 91,3</t>
+          <t>69,07; 91,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,43; 104,54</t>
+          <t>80,32; 104,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>101,29; 124,51</t>
+          <t>100,59; 122,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88,16; 105,13</t>
+          <t>89,11; 105,11</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>90,28; 107,99</t>
+          <t>90,77; 107,88</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>99,67; 117,17</t>
+          <t>99,77; 117,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>38,93; 131,0</t>
+          <t>43,59; 130,63</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>100,94; 110,44</t>
+          <t>100,34; 109,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>119,12; 132,65</t>
+          <t>120,03; 132,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>111,33; 123,59</t>
+          <t>110,99; 123,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>79,96; 145,86</t>
+          <t>76,02; 145,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>67,54; 78,61</t>
+          <t>67,85; 78,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>80,14; 92,21</t>
+          <t>80,29; 92,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>85,77; 97,87</t>
+          <t>85,53; 97,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>101,83; 119,87</t>
+          <t>98,68; 119,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>90,49; 98,06</t>
+          <t>90,5; 98,07</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>105,17; 114,86</t>
+          <t>105,29; 114,85</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>101,7; 110,55</t>
+          <t>102,3; 111,09</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>91,88; 132,0</t>
+          <t>85,53; 131,89</t>
         </is>
       </c>
     </row>
